--- a/results/I3_N5_M2_T45_C100_DepLowerLeft_s1_P5_res.xlsx
+++ b/results/I3_N5_M2_T45_C100_DepLowerLeft_s1_P5_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2394.088621098472</v>
+        <v>1838.827392600138</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.00800013542175293</v>
+        <v>0.003999948501586914</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34.84839347967299</v>
+        <v>25.81760345874363</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.81242032064569</v>
+        <v>13.97300194284284</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14.30264793944079</v>
+        <v>10.98279108423719</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2122.440000000003</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>238.31</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,67 +628,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>5</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>5</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -733,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -744,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -755,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -766,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -788,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -846,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -868,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -912,7 +857,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -962,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>39.01516429227019</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -978,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>13.39818852545001</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -986,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>32.48909622152298</v>
+        <v>42.28226196994633</v>
       </c>
     </row>
     <row r="7">
@@ -994,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>30</v>
+        <v>38.76616769126618</v>
       </c>
     </row>
     <row r="8">
@@ -1002,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>43.70085527653281</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
@@ -1010,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>35.20683425157665</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1024,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1056,10 +1001,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1070,10 +1015,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1084,10 +1029,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1098,10 +1043,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1112,10 +1057,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1126,10 +1071,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1140,10 +1085,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -1154,10 +1099,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
@@ -1168,10 +1113,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
@@ -1182,10 +1127,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
         <v>5</v>
@@ -1199,7 +1144,7 @@
         <v>4</v>
       </c>
       <c r="B12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -1213,7 +1158,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
@@ -1227,7 +1172,7 @@
         <v>4</v>
       </c>
       <c r="B14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" t="n">
         <v>3</v>
@@ -1241,7 +1186,7 @@
         <v>4</v>
       </c>
       <c r="B15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" t="n">
         <v>4</v>
@@ -1255,7 +1200,7 @@
         <v>4</v>
       </c>
       <c r="B16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" t="n">
         <v>5</v>
@@ -1286,9 +1231,51 @@
         <v>4</v>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" t="n">
+        <v>4</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C21" t="n">
+        <v>5</v>
+      </c>
+      <c r="D21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1391,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>236.9049999999991</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8">
@@ -1402,7 +1389,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>234.435</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9">
@@ -1413,7 +1400,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>237.675</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10">
@@ -1424,7 +1411,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>235.07</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11">
@@ -1435,7 +1422,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>232.9149999999991</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12">
@@ -1446,7 +1433,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>109.9349999999988</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13">
@@ -1457,7 +1444,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>106.7849999999997</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14">
@@ -1468,7 +1455,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>100.8199999999997</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15">
@@ -1479,7 +1466,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>107.8149999999997</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16">
@@ -1490,7 +1477,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>109.4349999999988</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17">
@@ -1501,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>62.88999999999913</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18">
@@ -1512,7 +1499,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>61.56</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19">
@@ -1523,7 +1510,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>54.17</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20">
@@ -1534,7 +1521,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>56.29</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21">
@@ -1545,7 +1532,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>60.16999999999913</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22">
@@ -1556,7 +1543,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>177.6150000000009</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23">
@@ -1567,7 +1554,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>171.8100000000009</v>
+        <v>270</v>
       </c>
     </row>
     <row r="24">
@@ -1578,7 +1565,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>178.4650000000009</v>
+        <v>269</v>
       </c>
     </row>
     <row r="25">
@@ -1589,7 +1576,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>177.2</v>
+        <v>265</v>
       </c>
     </row>
     <row r="26">
@@ -1600,7 +1587,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>179.1300000000009</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27">
@@ -1611,7 +1598,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>101.7250000000004</v>
+        <v>218</v>
       </c>
     </row>
     <row r="28">
@@ -1622,7 +1609,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>96.12000000000037</v>
+        <v>213</v>
       </c>
     </row>
     <row r="29">
@@ -1633,7 +1620,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>98.26500000000037</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30">
@@ -1644,7 +1631,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>96.94500000000036</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31">
@@ -1655,7 +1642,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>103.5650000000004</v>
+        <v>215</v>
       </c>
     </row>
     <row r="32">
@@ -1666,7 +1653,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>236.9049999999991</v>
+        <v>265</v>
       </c>
     </row>
     <row r="33">
@@ -1677,7 +1664,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>234.435</v>
+        <v>270</v>
       </c>
     </row>
     <row r="34">
@@ -1688,7 +1675,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>237.675</v>
+        <v>269</v>
       </c>
     </row>
     <row r="35">
@@ -1699,7 +1686,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>235.07</v>
+        <v>265</v>
       </c>
     </row>
     <row r="36">
@@ -1710,7 +1697,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>232.9149999999991</v>
+        <v>262</v>
       </c>
     </row>
     <row r="37">
@@ -1721,7 +1708,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>177.6150000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1732,7 +1719,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>171.8100000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1743,7 +1730,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>178.4650000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1754,7 +1741,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>177.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1765,7 +1752,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>179.1300000000009</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1812,7 +1799,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>136.9049999999991</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3">
@@ -1823,7 +1810,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>134.435</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4">
@@ -1834,7 +1821,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>137.675</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5">
@@ -1845,7 +1832,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>135.07</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6">
@@ -1856,7 +1843,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>132.9149999999991</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7">
@@ -1867,7 +1854,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>77.61500000000086</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1878,7 +1865,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>71.81000000000085</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1889,7 +1876,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>78.46500000000086</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1900,7 +1887,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>77.19999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1911,7 +1898,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>79.13000000000088</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1958,7 +1945,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1969,7 +1956,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1980,7 +1967,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1991,7 +1978,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -2002,7 +1989,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -2068,7 +2055,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>22.18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -2079,7 +2066,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>26.98</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -2090,7 +2077,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>20.74</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -2101,7 +2088,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>26.68</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -2112,7 +2099,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>22.575</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -2236,7 +2223,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2263,7 +2250,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2274,7 +2261,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2285,7 +2272,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2296,7 +2283,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2307,7 +2294,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -2318,7 +2305,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2329,7 +2316,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -2340,7 +2327,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -2351,7 +2338,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -2362,7 +2349,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
@@ -2442,9 +2429,42 @@
         <v>5</v>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" t="n">
+        <v>5</v>
+      </c>
+      <c r="C21" t="n">
         <v>1</v>
       </c>
     </row>
